--- a/MVO TEST.xlsx
+++ b/MVO TEST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ\WORK NÈ\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ\ĐẠI HỌC\NCKH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E3A5E3-EA2E-4788-88C7-6BFCB3A1A7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0101DC2D-A83E-42F3-A788-1AD76CD1BBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{D44485AC-7E9F-4AAF-A3C3-489F13147612}"/>
   </bookViews>
@@ -499,15 +499,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -517,13 +508,22 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1549,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F75BAF-07F4-4675-997D-F6A19A04241C}">
   <dimension ref="A1:N388"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,10 +1594,10 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1728,10 +1728,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="15">
         <v>1.4017172929241921</v>
       </c>
@@ -1884,19 +1884,19 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
@@ -1921,10 +1921,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="15">
         <v>1.4017172929241921</v>
       </c>
@@ -1934,10 +1934,10 @@
       <c r="E14" s="15">
         <v>-0.1271654891778855</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="42"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="16">
         <v>0.27641437585113104</v>
       </c>
@@ -1949,10 +1949,10 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="15">
         <v>0.18582755975031473</v>
       </c>
@@ -1963,10 +1963,10 @@
         <v>4.6112689222604697E-2</v>
       </c>
       <c r="F15" s="10"/>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="42"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="17">
         <v>0.18582755975031473</v>
       </c>
@@ -1978,10 +1978,10 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="16">
         <v>1.4017172929241921</v>
       </c>
@@ -1991,10 +1991,10 @@
       <c r="E16" s="16">
         <v>-0.964608983598779</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="42"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="17">
         <v>1.4017172929241921</v>
       </c>
@@ -2006,10 +2006,10 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="16">
         <v>0.18582755975031473</v>
       </c>
@@ -2019,10 +2019,10 @@
       <c r="E17" s="16">
         <v>-0.964608983598779</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="42"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="17">
         <v>0.18582755975031473</v>
       </c>
@@ -2034,10 +2034,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="16">
         <v>0.644389331524586</v>
       </c>
@@ -2047,10 +2047,10 @@
       <c r="E18" s="16">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="42"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="17">
         <v>0.644389331524586</v>
       </c>
@@ -2092,10 +2092,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="38"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
@@ -2134,10 +2134,10 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="39"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="17">
         <v>0.27641437585113104</v>
       </c>
@@ -2181,10 +2181,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="17">
         <v>0.18582755975031473</v>
       </c>
@@ -2228,10 +2228,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="39"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="17">
         <v>1.4017172929241921</v>
       </c>
@@ -2275,10 +2275,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="39"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="17">
         <v>0.18582755975031473</v>
       </c>
@@ -2322,10 +2322,10 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="39"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="17">
         <v>0.644389331524586</v>
       </c>
@@ -2369,19 +2369,19 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
     </row>
     <row r="32" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="38"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
@@ -2406,10 +2406,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="39"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="17">
         <v>0.18582755975031473</v>
       </c>
@@ -2419,10 +2419,10 @@
       <c r="E33" s="17">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G33" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="42"/>
+      <c r="H33" s="37"/>
       <c r="I33" s="17">
         <v>0.18582755975031501</v>
       </c>
@@ -2434,10 +2434,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="39"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="17">
         <v>1.4017172929241921</v>
       </c>
@@ -2447,10 +2447,10 @@
       <c r="E34" s="17">
         <v>-0.964608983598779</v>
       </c>
-      <c r="G34" s="42" t="s">
+      <c r="G34" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="42"/>
+      <c r="H34" s="37"/>
       <c r="I34" s="17">
         <v>1.4017172929241921</v>
       </c>
@@ -2462,10 +2462,10 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="39"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="16">
         <v>0.27641437585113104</v>
       </c>
@@ -2475,10 +2475,10 @@
       <c r="E35" s="16">
         <v>-0.964608983598779</v>
       </c>
-      <c r="G35" s="42" t="s">
+      <c r="G35" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="42"/>
+      <c r="H35" s="37"/>
       <c r="I35" s="17">
         <v>0.27641437585113104</v>
       </c>
@@ -2490,10 +2490,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="39"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="16">
         <v>0.18582755975031473</v>
       </c>
@@ -2503,10 +2503,10 @@
       <c r="E36" s="16">
         <v>1.0391797406188081</v>
       </c>
-      <c r="G36" s="42" t="s">
+      <c r="G36" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="42"/>
+      <c r="H36" s="37"/>
       <c r="I36" s="17">
         <v>0.18582755975031473</v>
       </c>
@@ -2518,10 +2518,10 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="39"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="16">
         <v>1.4017172929241921</v>
       </c>
@@ -2531,10 +2531,10 @@
       <c r="E37" s="16">
         <v>-0.964608983598779</v>
       </c>
-      <c r="G37" s="42" t="s">
+      <c r="G37" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="42"/>
+      <c r="H37" s="37"/>
       <c r="I37" s="16">
         <v>1.3057860865851567</v>
       </c>
@@ -2555,10 +2555,10 @@
       <c r="E39" s="46"/>
     </row>
     <row r="42" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="38"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="2" t="s">
         <v>3</v>
       </c>
@@ -2597,10 +2597,10 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="41"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="17">
         <v>0.18582755975031501</v>
       </c>
@@ -2644,10 +2644,10 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="42"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="17">
         <v>1.4017172929241921</v>
       </c>
@@ -2691,10 +2691,10 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="42"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="17">
         <v>0.27641437585113104</v>
       </c>
@@ -2738,10 +2738,10 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="42"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="17">
         <v>0.18582755975031473</v>
       </c>
@@ -2785,10 +2785,10 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="42"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="17">
         <v>1.3057860865851567</v>
       </c>
@@ -2850,19 +2850,19 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
     </row>
     <row r="52" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="38"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="2" t="s">
         <v>3</v>
       </c>
@@ -2872,10 +2872,10 @@
       <c r="E52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="38" t="s">
+      <c r="G52" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="38"/>
+      <c r="H52" s="35"/>
       <c r="I52" s="2" t="s">
         <v>3</v>
       </c>
@@ -2887,10 +2887,10 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="39"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="17">
         <v>0.18582755975031501</v>
       </c>
@@ -2900,10 +2900,10 @@
       <c r="E53" s="17">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G53" s="39" t="s">
+      <c r="G53" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H53" s="39"/>
+      <c r="H53" s="36"/>
       <c r="I53" s="17">
         <v>0.18582755975031501</v>
       </c>
@@ -2915,10 +2915,10 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="39"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="17">
         <v>1.4017172929241921</v>
       </c>
@@ -2928,10 +2928,10 @@
       <c r="E54" s="17">
         <v>-0.964608983598779</v>
       </c>
-      <c r="G54" s="39" t="s">
+      <c r="G54" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H54" s="39"/>
+      <c r="H54" s="36"/>
       <c r="I54" s="17">
         <v>1.4017172929241921</v>
       </c>
@@ -2943,10 +2943,10 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="39"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="17">
         <v>0.18582755975031473</v>
       </c>
@@ -2956,10 +2956,10 @@
       <c r="E55" s="17">
         <v>1.0391797406188081</v>
       </c>
-      <c r="G55" s="39" t="s">
+      <c r="G55" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H55" s="39"/>
+      <c r="H55" s="36"/>
       <c r="I55" s="17">
         <v>0.18582755975031473</v>
       </c>
@@ -2971,10 +2971,10 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="39"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="17">
         <v>0.27641437585113104</v>
       </c>
@@ -2984,10 +2984,10 @@
       <c r="E56" s="17">
         <v>-0.964608983598779</v>
       </c>
-      <c r="G56" s="39" t="s">
+      <c r="G56" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H56" s="39"/>
+      <c r="H56" s="36"/>
       <c r="I56" s="17">
         <v>0.27641437585113104</v>
       </c>
@@ -2999,10 +2999,10 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="39"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="16">
         <v>1.3057860865851567</v>
       </c>
@@ -3012,10 +3012,10 @@
       <c r="E57" s="16">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G57" s="39" t="s">
+      <c r="G57" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="39"/>
+      <c r="H57" s="36"/>
       <c r="I57" s="16">
         <v>-0.87191104892703564</v>
       </c>
@@ -3027,13 +3027,13 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="36"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="42"/>
     </row>
     <row r="62" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="43" t="s">
@@ -3078,10 +3078,10 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="41" t="s">
+      <c r="A63" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="41"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="17">
         <v>0.18582755975031501</v>
       </c>
@@ -3125,10 +3125,10 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="42"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="17">
         <v>1.4017172929241921</v>
       </c>
@@ -3172,10 +3172,10 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="42"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="17">
         <v>0.18582755975031473</v>
       </c>
@@ -3219,10 +3219,10 @@
       </c>
     </row>
     <row r="66" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="42"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="17">
         <v>0.27641437585113104</v>
       </c>
@@ -3266,10 +3266,10 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="42" t="s">
+      <c r="A67" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="42"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="17">
         <v>-0.87191104892703564</v>
       </c>
@@ -3331,19 +3331,19 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
     </row>
     <row r="72" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="38" t="s">
+      <c r="A72" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="38"/>
+      <c r="B72" s="35"/>
       <c r="C72" s="2" t="s">
         <v>3</v>
       </c>
@@ -3356,10 +3356,10 @@
       <c r="F72" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G72" s="38" t="s">
+      <c r="G72" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H72" s="38"/>
+      <c r="H72" s="35"/>
       <c r="I72" s="2" t="s">
         <v>3</v>
       </c>
@@ -3371,10 +3371,10 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="39"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="17">
         <v>0.18582755975031501</v>
       </c>
@@ -3384,10 +3384,10 @@
       <c r="E73" s="17">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G73" s="39" t="s">
+      <c r="G73" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H73" s="39"/>
+      <c r="H73" s="36"/>
       <c r="I73" s="17">
         <v>0.18582755975031501</v>
       </c>
@@ -3399,10 +3399,10 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="39" t="s">
+      <c r="A74" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="39"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="16">
         <v>1.4017172929241921</v>
       </c>
@@ -3412,10 +3412,10 @@
       <c r="E74" s="16">
         <v>1.0391797406188081</v>
       </c>
-      <c r="G74" s="39" t="s">
+      <c r="G74" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H74" s="39"/>
+      <c r="H74" s="36"/>
       <c r="I74" s="17">
         <v>1.4017172929241921</v>
       </c>
@@ -3427,10 +3427,10 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="39"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="16">
         <v>-0.87191104892703564</v>
       </c>
@@ -3440,10 +3440,10 @@
       <c r="E75" s="16">
         <v>-0.964608983598779</v>
       </c>
-      <c r="G75" s="39" t="s">
+      <c r="G75" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H75" s="39"/>
+      <c r="H75" s="36"/>
       <c r="I75" s="17">
         <v>-0.87191104892703564</v>
       </c>
@@ -3455,10 +3455,10 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="39" t="s">
+      <c r="A76" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="39"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="16">
         <v>0.27641437585113104</v>
       </c>
@@ -3468,10 +3468,10 @@
       <c r="E76" s="16">
         <v>-0.964608983598779</v>
       </c>
-      <c r="G76" s="39" t="s">
+      <c r="G76" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H76" s="39"/>
+      <c r="H76" s="36"/>
       <c r="I76" s="16">
         <v>0.90681088712613755</v>
       </c>
@@ -3483,10 +3483,10 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="39" t="s">
+      <c r="A77" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="39"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="16">
         <v>-0.87191104892703564</v>
       </c>
@@ -3496,10 +3496,10 @@
       <c r="E77" s="16">
         <v>1.0391797406188081</v>
       </c>
-      <c r="G77" s="39" t="s">
+      <c r="G77" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H77" s="39"/>
+      <c r="H77" s="36"/>
       <c r="I77" s="17">
         <v>-0.87191104892703564</v>
       </c>
@@ -3511,19 +3511,19 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="34" t="s">
+      <c r="A79" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="36"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="42"/>
     </row>
     <row r="81" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="38" t="s">
+      <c r="A81" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="38"/>
+      <c r="B81" s="35"/>
       <c r="C81" s="2" t="s">
         <v>3</v>
       </c>
@@ -3562,10 +3562,10 @@
       </c>
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A82" s="40" t="s">
+      <c r="A82" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B82" s="40"/>
+      <c r="B82" s="39"/>
       <c r="C82" s="17">
         <v>0.18582755975031501</v>
       </c>
@@ -3609,10 +3609,10 @@
       </c>
     </row>
     <row r="83" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="39" t="s">
+      <c r="A83" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="39"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="17">
         <v>1.4017172929241921</v>
       </c>
@@ -3656,10 +3656,10 @@
       </c>
     </row>
     <row r="84" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="39" t="s">
+      <c r="A84" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="39"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="17">
         <v>-0.87191104892703564</v>
       </c>
@@ -3703,10 +3703,10 @@
       </c>
     </row>
     <row r="85" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="39"/>
+      <c r="B85" s="36"/>
       <c r="C85" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -3750,10 +3750,10 @@
       </c>
     </row>
     <row r="86" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="39" t="s">
+      <c r="A86" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="39"/>
+      <c r="B86" s="36"/>
       <c r="C86" s="17">
         <v>-0.87191104892703564</v>
       </c>
@@ -3815,19 +3815,19 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="37" t="s">
+      <c r="A91" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
     </row>
     <row r="92" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B92" s="38"/>
+      <c r="B92" s="35"/>
       <c r="C92" s="2" t="s">
         <v>3</v>
       </c>
@@ -3837,10 +3837,10 @@
       <c r="E92" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="38" t="s">
+      <c r="G92" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H92" s="38"/>
+      <c r="H92" s="35"/>
       <c r="I92" s="2" t="s">
         <v>3</v>
       </c>
@@ -3852,10 +3852,10 @@
       </c>
     </row>
     <row r="93" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="39" t="s">
+      <c r="A93" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="39"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="17">
         <v>0.18582755975031501</v>
       </c>
@@ -3865,10 +3865,10 @@
       <c r="E93" s="17">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G93" s="42" t="s">
+      <c r="G93" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H93" s="42"/>
+      <c r="H93" s="37"/>
       <c r="I93" s="17">
         <v>0.18582755975031501</v>
       </c>
@@ -3880,10 +3880,10 @@
       </c>
     </row>
     <row r="94" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="39" t="s">
+      <c r="A94" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="39"/>
+      <c r="B94" s="36"/>
       <c r="C94" s="16">
         <v>-0.87191104892703564</v>
       </c>
@@ -3893,10 +3893,10 @@
       <c r="E94" s="16">
         <v>-0.964608983598779</v>
       </c>
-      <c r="G94" s="42" t="s">
+      <c r="G94" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="42"/>
+      <c r="H94" s="37"/>
       <c r="I94" s="17">
         <v>-0.87191104892703564</v>
       </c>
@@ -3908,10 +3908,10 @@
       </c>
     </row>
     <row r="95" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="39" t="s">
+      <c r="A95" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="39"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="17">
         <v>-0.87191104892703564</v>
       </c>
@@ -3921,10 +3921,10 @@
       <c r="E95" s="17">
         <v>1.0391797406188081</v>
       </c>
-      <c r="G95" s="42" t="s">
+      <c r="G95" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H95" s="42"/>
+      <c r="H95" s="37"/>
       <c r="I95" s="17">
         <v>-0.87191104892703564</v>
       </c>
@@ -3936,10 +3936,10 @@
       </c>
     </row>
     <row r="96" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A96" s="39" t="s">
+      <c r="A96" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="39"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="16">
         <v>0.18582755975031501</v>
       </c>
@@ -3949,10 +3949,10 @@
       <c r="E96" s="16">
         <v>1.0391797406188081</v>
       </c>
-      <c r="G96" s="42" t="s">
+      <c r="G96" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H96" s="42"/>
+      <c r="H96" s="37"/>
       <c r="I96" s="17">
         <v>0.18582755975031501</v>
       </c>
@@ -3964,10 +3964,10 @@
       </c>
     </row>
     <row r="97" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A97" s="39" t="s">
+      <c r="A97" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="39"/>
+      <c r="B97" s="36"/>
       <c r="C97" s="16">
         <v>0.90681088712613755</v>
       </c>
@@ -3977,10 +3977,10 @@
       <c r="E97" s="16">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G97" s="42" t="s">
+      <c r="G97" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H97" s="42"/>
+      <c r="H97" s="37"/>
       <c r="I97" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -3992,19 +3992,19 @@
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="34" t="s">
+      <c r="A99" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B99" s="35"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="36"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="42"/>
     </row>
     <row r="101" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="38" t="s">
+      <c r="A101" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="38"/>
+      <c r="B101" s="35"/>
       <c r="C101" s="2" t="s">
         <v>3</v>
       </c>
@@ -4043,10 +4043,10 @@
       </c>
     </row>
     <row r="102" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="42" t="s">
+      <c r="A102" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="42"/>
+      <c r="B102" s="37"/>
       <c r="C102" s="17">
         <v>0.18582755975031501</v>
       </c>
@@ -4090,10 +4090,10 @@
       </c>
     </row>
     <row r="103" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="42" t="s">
+      <c r="A103" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="42"/>
+      <c r="B103" s="37"/>
       <c r="C103" s="17">
         <v>-0.87191104892703564</v>
       </c>
@@ -4137,10 +4137,10 @@
       </c>
     </row>
     <row r="104" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="42" t="s">
+      <c r="A104" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B104" s="42"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="17">
         <v>-0.87191104892703564</v>
       </c>
@@ -4184,10 +4184,10 @@
       </c>
     </row>
     <row r="105" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A105" s="42" t="s">
+      <c r="A105" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B105" s="42"/>
+      <c r="B105" s="37"/>
       <c r="C105" s="17">
         <v>0.18582755975031501</v>
       </c>
@@ -4231,10 +4231,10 @@
       </c>
     </row>
     <row r="106" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="41" t="s">
+      <c r="A106" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="41"/>
+      <c r="B106" s="38"/>
       <c r="C106" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -4296,19 +4296,19 @@
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="37" t="s">
+      <c r="A111" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B111" s="37"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="34"/>
     </row>
     <row r="112" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A112" s="38" t="s">
+      <c r="A112" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="38"/>
+      <c r="B112" s="35"/>
       <c r="C112" s="2" t="s">
         <v>3</v>
       </c>
@@ -4318,10 +4318,10 @@
       <c r="E112" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G112" s="38" t="s">
+      <c r="G112" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H112" s="38"/>
+      <c r="H112" s="35"/>
       <c r="I112" s="2" t="s">
         <v>3</v>
       </c>
@@ -4333,10 +4333,10 @@
       </c>
     </row>
     <row r="113" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="39" t="s">
+      <c r="A113" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B113" s="39"/>
+      <c r="B113" s="36"/>
       <c r="C113" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -4346,10 +4346,10 @@
       <c r="E113" s="17">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G113" s="39" t="s">
+      <c r="G113" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H113" s="39"/>
+      <c r="H113" s="36"/>
       <c r="I113" s="16">
         <v>1.3563741112555261</v>
       </c>
@@ -4361,10 +4361,10 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A114" s="39" t="s">
+      <c r="A114" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B114" s="39"/>
+      <c r="B114" s="36"/>
       <c r="C114" s="16">
         <v>0.18582755975031501</v>
       </c>
@@ -4374,10 +4374,10 @@
       <c r="E114" s="16">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G114" s="39" t="s">
+      <c r="G114" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H114" s="39"/>
+      <c r="H114" s="36"/>
       <c r="I114" s="17">
         <v>0.18582755975031501</v>
       </c>
@@ -4389,10 +4389,10 @@
       </c>
     </row>
     <row r="115" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A115" s="39" t="s">
+      <c r="A115" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="39"/>
+      <c r="B115" s="36"/>
       <c r="C115" s="16">
         <v>-0.87191104892703564</v>
       </c>
@@ -4402,10 +4402,10 @@
       <c r="E115" s="16">
         <v>1.0391797406188081</v>
       </c>
-      <c r="G115" s="39" t="s">
+      <c r="G115" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H115" s="39"/>
+      <c r="H115" s="36"/>
       <c r="I115" s="16">
         <v>6.859356900804825E-2</v>
       </c>
@@ -4417,10 +4417,10 @@
       </c>
     </row>
     <row r="116" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A116" s="39" t="s">
+      <c r="A116" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="39"/>
+      <c r="B116" s="36"/>
       <c r="C116" s="16">
         <v>0.90681088712613755</v>
       </c>
@@ -4430,10 +4430,10 @@
       <c r="E116" s="16">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G116" s="39" t="s">
+      <c r="G116" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H116" s="39"/>
+      <c r="H116" s="36"/>
       <c r="I116" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -4445,10 +4445,10 @@
       </c>
     </row>
     <row r="117" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A117" s="39" t="s">
+      <c r="A117" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B117" s="39"/>
+      <c r="B117" s="36"/>
       <c r="C117" s="16">
         <v>-0.87191104892703564</v>
       </c>
@@ -4458,10 +4458,10 @@
       <c r="E117" s="16">
         <v>-0.964608983598779</v>
       </c>
-      <c r="G117" s="39" t="s">
+      <c r="G117" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H117" s="39"/>
+      <c r="H117" s="36"/>
       <c r="I117" s="16">
         <v>1.641708925440696</v>
       </c>
@@ -4473,19 +4473,19 @@
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="34" t="s">
+      <c r="A119" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B119" s="35"/>
-      <c r="C119" s="35"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="36"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="41"/>
+      <c r="E119" s="42"/>
     </row>
     <row r="121" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A121" s="38" t="s">
+      <c r="A121" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B121" s="38"/>
+      <c r="B121" s="35"/>
       <c r="C121" s="2" t="s">
         <v>3</v>
       </c>
@@ -4524,10 +4524,10 @@
       </c>
     </row>
     <row r="122" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A122" s="42" t="s">
+      <c r="A122" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B122" s="42"/>
+      <c r="B122" s="37"/>
       <c r="C122" s="17">
         <v>1.3563741112555261</v>
       </c>
@@ -4571,10 +4571,10 @@
       </c>
     </row>
     <row r="123" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A123" s="42" t="s">
+      <c r="A123" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B123" s="42"/>
+      <c r="B123" s="37"/>
       <c r="C123" s="17">
         <v>0.18582755975031501</v>
       </c>
@@ -4618,10 +4618,10 @@
       </c>
     </row>
     <row r="124" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A124" s="42" t="s">
+      <c r="A124" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B124" s="42"/>
+      <c r="B124" s="37"/>
       <c r="C124" s="17">
         <v>6.859356900804825E-2</v>
       </c>
@@ -4665,10 +4665,10 @@
       </c>
     </row>
     <row r="125" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A125" s="41" t="s">
+      <c r="A125" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B125" s="41"/>
+      <c r="B125" s="38"/>
       <c r="C125" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -4712,10 +4712,10 @@
       </c>
     </row>
     <row r="126" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A126" s="42" t="s">
+      <c r="A126" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B126" s="42"/>
+      <c r="B126" s="37"/>
       <c r="C126" s="17">
         <v>1.641708925440696</v>
       </c>
@@ -4777,19 +4777,19 @@
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="37" t="s">
+      <c r="A131" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B131" s="37"/>
-      <c r="C131" s="37"/>
-      <c r="D131" s="37"/>
-      <c r="E131" s="37"/>
+      <c r="B131" s="34"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="34"/>
+      <c r="E131" s="34"/>
     </row>
     <row r="132" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A132" s="38" t="s">
+      <c r="A132" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B132" s="38"/>
+      <c r="B132" s="35"/>
       <c r="C132" s="2" t="s">
         <v>3</v>
       </c>
@@ -4799,10 +4799,10 @@
       <c r="E132" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G132" s="38" t="s">
+      <c r="G132" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H132" s="38"/>
+      <c r="H132" s="35"/>
       <c r="I132" s="2" t="s">
         <v>3</v>
       </c>
@@ -4814,10 +4814,10 @@
       </c>
     </row>
     <row r="133" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A133" s="39" t="s">
+      <c r="A133" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B133" s="39"/>
+      <c r="B133" s="36"/>
       <c r="C133" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -4827,10 +4827,10 @@
       <c r="E133" s="17">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G133" s="39" t="s">
+      <c r="G133" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H133" s="39"/>
+      <c r="H133" s="36"/>
       <c r="I133" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -4842,10 +4842,10 @@
       </c>
     </row>
     <row r="134" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A134" s="39" t="s">
+      <c r="A134" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B134" s="39"/>
+      <c r="B134" s="36"/>
       <c r="C134" s="16">
         <v>1.641708925440696</v>
       </c>
@@ -4855,10 +4855,10 @@
       <c r="E134" s="16">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G134" s="39" t="s">
+      <c r="G134" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H134" s="39"/>
+      <c r="H134" s="36"/>
       <c r="I134" s="16">
         <v>1.6659647975616241</v>
       </c>
@@ -4870,10 +4870,10 @@
       </c>
     </row>
     <row r="135" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A135" s="39" t="s">
+      <c r="A135" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B135" s="39"/>
+      <c r="B135" s="36"/>
       <c r="C135" s="17">
         <v>6.859356900804825E-2</v>
       </c>
@@ -4883,10 +4883,10 @@
       <c r="E135" s="17">
         <v>-0.79210462889548461</v>
       </c>
-      <c r="G135" s="39" t="s">
+      <c r="G135" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H135" s="39"/>
+      <c r="H135" s="36"/>
       <c r="I135" s="17">
         <v>6.859356900804825E-2</v>
       </c>
@@ -4898,10 +4898,10 @@
       </c>
     </row>
     <row r="136" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A136" s="39" t="s">
+      <c r="A136" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B136" s="39"/>
+      <c r="B136" s="36"/>
       <c r="C136" s="17">
         <v>1.641708925440696</v>
       </c>
@@ -4911,10 +4911,10 @@
       <c r="E136" s="17">
         <v>0.78101072753716327</v>
       </c>
-      <c r="G136" s="39" t="s">
+      <c r="G136" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H136" s="39"/>
+      <c r="H136" s="36"/>
       <c r="I136" s="16">
         <v>1.139774463162712</v>
       </c>
@@ -4926,10 +4926,10 @@
       </c>
     </row>
     <row r="137" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A137" s="39" t="s">
+      <c r="A137" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="39"/>
+      <c r="B137" s="36"/>
       <c r="C137" s="16">
         <v>0.18582755975031501</v>
       </c>
@@ -4939,10 +4939,10 @@
       <c r="E137" s="16">
         <v>0.49567591335199318</v>
       </c>
-      <c r="G137" s="39" t="s">
+      <c r="G137" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H137" s="39"/>
+      <c r="H137" s="36"/>
       <c r="I137" s="17">
         <v>0.18582755975031501</v>
       </c>
@@ -4954,19 +4954,19 @@
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="34" t="s">
+      <c r="A139" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B139" s="35"/>
-      <c r="C139" s="35"/>
-      <c r="D139" s="35"/>
-      <c r="E139" s="36"/>
+      <c r="B139" s="41"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="41"/>
+      <c r="E139" s="42"/>
     </row>
     <row r="141" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A141" s="38" t="s">
+      <c r="A141" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B141" s="38"/>
+      <c r="B141" s="35"/>
       <c r="C141" s="2" t="s">
         <v>3</v>
       </c>
@@ -5005,10 +5005,10 @@
       </c>
     </row>
     <row r="142" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A142" s="41" t="s">
+      <c r="A142" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B142" s="41"/>
+      <c r="B142" s="38"/>
       <c r="C142" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -5052,10 +5052,10 @@
       </c>
     </row>
     <row r="143" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A143" s="42" t="s">
+      <c r="A143" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B143" s="42"/>
+      <c r="B143" s="37"/>
       <c r="C143" s="17">
         <v>1.6659647975616241</v>
       </c>
@@ -5099,10 +5099,10 @@
       </c>
     </row>
     <row r="144" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A144" s="42" t="s">
+      <c r="A144" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B144" s="42"/>
+      <c r="B144" s="37"/>
       <c r="C144" s="17">
         <v>6.859356900804825E-2</v>
       </c>
@@ -5146,10 +5146,10 @@
       </c>
     </row>
     <row r="145" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A145" s="42" t="s">
+      <c r="A145" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B145" s="42"/>
+      <c r="B145" s="37"/>
       <c r="C145" s="17">
         <v>1.139774463162712</v>
       </c>
@@ -5193,10 +5193,10 @@
       </c>
     </row>
     <row r="146" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A146" s="42" t="s">
+      <c r="A146" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B146" s="42"/>
+      <c r="B146" s="37"/>
       <c r="C146" s="17">
         <v>0.18582755975031501</v>
       </c>
@@ -5258,19 +5258,19 @@
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" s="37" t="s">
+      <c r="A151" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B151" s="37"/>
-      <c r="C151" s="37"/>
-      <c r="D151" s="37"/>
-      <c r="E151" s="37"/>
+      <c r="B151" s="34"/>
+      <c r="C151" s="34"/>
+      <c r="D151" s="34"/>
+      <c r="E151" s="34"/>
     </row>
     <row r="152" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A152" s="38" t="s">
+      <c r="A152" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B152" s="38"/>
+      <c r="B152" s="35"/>
       <c r="C152" s="2" t="s">
         <v>3</v>
       </c>
@@ -5280,10 +5280,10 @@
       <c r="E152" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G152" s="38" t="s">
+      <c r="G152" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H152" s="38"/>
+      <c r="H152" s="35"/>
       <c r="I152" s="2" t="s">
         <v>3</v>
       </c>
@@ -5295,10 +5295,10 @@
       </c>
     </row>
     <row r="153" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A153" s="39" t="s">
+      <c r="A153" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B153" s="39"/>
+      <c r="B153" s="36"/>
       <c r="C153" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -5308,10 +5308,10 @@
       <c r="E153" s="17">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G153" s="42" t="s">
+      <c r="G153" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H153" s="42"/>
+      <c r="H153" s="37"/>
       <c r="I153" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -5323,10 +5323,10 @@
       </c>
     </row>
     <row r="154" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A154" s="39" t="s">
+      <c r="A154" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B154" s="39"/>
+      <c r="B154" s="36"/>
       <c r="C154" s="17">
         <v>1.139774463162712</v>
       </c>
@@ -5336,10 +5336,10 @@
       <c r="E154" s="17">
         <v>0.27907626525917928</v>
       </c>
-      <c r="G154" s="42" t="s">
+      <c r="G154" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H154" s="42"/>
+      <c r="H154" s="37"/>
       <c r="I154" s="17">
         <v>1.139774463162712</v>
       </c>
@@ -5351,10 +5351,10 @@
       </c>
     </row>
     <row r="155" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A155" s="39" t="s">
+      <c r="A155" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B155" s="39"/>
+      <c r="B155" s="36"/>
       <c r="C155" s="16">
         <v>1.6659647975616241</v>
       </c>
@@ -5364,10 +5364,10 @@
       <c r="E155" s="16">
         <v>0.27907626525917928</v>
       </c>
-      <c r="G155" s="42" t="s">
+      <c r="G155" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H155" s="42"/>
+      <c r="H155" s="37"/>
       <c r="I155" s="17">
         <v>1.6659647975616241</v>
       </c>
@@ -5379,10 +5379,10 @@
       </c>
     </row>
     <row r="156" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A156" s="39" t="s">
+      <c r="A156" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B156" s="39"/>
+      <c r="B156" s="36"/>
       <c r="C156" s="16">
         <v>0.18582755975031501</v>
       </c>
@@ -5392,10 +5392,10 @@
       <c r="E156" s="16">
         <v>0.57241815167597698</v>
       </c>
-      <c r="G156" s="42" t="s">
+      <c r="G156" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H156" s="42"/>
+      <c r="H156" s="37"/>
       <c r="I156" s="17">
         <v>0.18582755975031501</v>
       </c>
@@ -5407,10 +5407,10 @@
       </c>
     </row>
     <row r="157" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A157" s="39" t="s">
+      <c r="A157" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B157" s="39"/>
+      <c r="B157" s="36"/>
       <c r="C157" s="16">
         <v>1.139774463162712</v>
       </c>
@@ -5420,10 +5420,10 @@
       <c r="E157" s="16">
         <v>0.92378411483003231</v>
       </c>
-      <c r="G157" s="42" t="s">
+      <c r="G157" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H157" s="42"/>
+      <c r="H157" s="37"/>
       <c r="I157" s="17">
         <v>1.139774463162712</v>
       </c>
@@ -5435,19 +5435,19 @@
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="34" t="s">
+      <c r="A159" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B159" s="35"/>
-      <c r="C159" s="35"/>
-      <c r="D159" s="35"/>
-      <c r="E159" s="36"/>
+      <c r="B159" s="41"/>
+      <c r="C159" s="41"/>
+      <c r="D159" s="41"/>
+      <c r="E159" s="42"/>
     </row>
     <row r="161" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A161" s="38" t="s">
+      <c r="A161" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B161" s="38"/>
+      <c r="B161" s="35"/>
       <c r="C161" s="2" t="s">
         <v>3</v>
       </c>
@@ -5486,10 +5486,10 @@
       </c>
     </row>
     <row r="162" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A162" s="41" t="s">
+      <c r="A162" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B162" s="41"/>
+      <c r="B162" s="38"/>
       <c r="C162" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -5533,10 +5533,10 @@
       </c>
     </row>
     <row r="163" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A163" s="42" t="s">
+      <c r="A163" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B163" s="42"/>
+      <c r="B163" s="37"/>
       <c r="C163" s="17">
         <v>1.139774463162712</v>
       </c>
@@ -5580,10 +5580,10 @@
       </c>
     </row>
     <row r="164" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A164" s="42" t="s">
+      <c r="A164" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B164" s="42"/>
+      <c r="B164" s="37"/>
       <c r="C164" s="17">
         <v>1.6659647975616241</v>
       </c>
@@ -5627,10 +5627,10 @@
       </c>
     </row>
     <row r="165" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A165" s="42" t="s">
+      <c r="A165" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B165" s="42"/>
+      <c r="B165" s="37"/>
       <c r="C165" s="17">
         <v>0.18582755975031501</v>
       </c>
@@ -5674,10 +5674,10 @@
       </c>
     </row>
     <row r="166" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A166" s="42" t="s">
+      <c r="A166" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B166" s="42"/>
+      <c r="B166" s="37"/>
       <c r="C166" s="17">
         <v>1.139774463162712</v>
       </c>
@@ -5739,19 +5739,19 @@
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171" s="37" t="s">
+      <c r="A171" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B171" s="37"/>
-      <c r="C171" s="37"/>
-      <c r="D171" s="37"/>
-      <c r="E171" s="37"/>
+      <c r="B171" s="34"/>
+      <c r="C171" s="34"/>
+      <c r="D171" s="34"/>
+      <c r="E171" s="34"/>
     </row>
     <row r="172" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A172" s="38" t="s">
+      <c r="A172" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B172" s="38"/>
+      <c r="B172" s="35"/>
       <c r="C172" s="2" t="s">
         <v>3</v>
       </c>
@@ -5776,10 +5776,10 @@
       </c>
     </row>
     <row r="173" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A173" s="39" t="s">
+      <c r="A173" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B173" s="39"/>
+      <c r="B173" s="36"/>
       <c r="C173" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -5789,10 +5789,10 @@
       <c r="E173" s="17">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G173" s="42" t="s">
+      <c r="G173" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H173" s="42"/>
+      <c r="H173" s="37"/>
       <c r="I173" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -5804,10 +5804,10 @@
       </c>
     </row>
     <row r="174" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A174" s="39" t="s">
+      <c r="A174" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B174" s="39"/>
+      <c r="B174" s="36"/>
       <c r="C174" s="17">
         <v>1.139774463162712</v>
       </c>
@@ -5817,10 +5817,10 @@
       <c r="E174" s="17">
         <v>0.27907626525917928</v>
       </c>
-      <c r="G174" s="42" t="s">
+      <c r="G174" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H174" s="42"/>
+      <c r="H174" s="37"/>
       <c r="I174" s="17">
         <v>1.139774463162712</v>
       </c>
@@ -5832,10 +5832,10 @@
       </c>
     </row>
     <row r="175" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A175" s="39" t="s">
+      <c r="A175" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B175" s="39"/>
+      <c r="B175" s="36"/>
       <c r="C175" s="16">
         <v>1.139774463162712</v>
       </c>
@@ -5845,10 +5845,10 @@
       <c r="E175" s="16">
         <v>0.92378411483003231</v>
       </c>
-      <c r="G175" s="42" t="s">
+      <c r="G175" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H175" s="42"/>
+      <c r="H175" s="37"/>
       <c r="I175" s="17">
         <v>1.139774463162712</v>
       </c>
@@ -5860,10 +5860,10 @@
       </c>
     </row>
     <row r="176" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A176" s="39" t="s">
+      <c r="A176" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B176" s="39"/>
+      <c r="B176" s="36"/>
       <c r="C176" s="16">
         <v>1.6659647975616241</v>
       </c>
@@ -5873,10 +5873,10 @@
       <c r="E176" s="16">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G176" s="42" t="s">
+      <c r="G176" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H176" s="42"/>
+      <c r="H176" s="37"/>
       <c r="I176" s="17">
         <v>1.6659647975616241</v>
       </c>
@@ -5888,10 +5888,10 @@
       </c>
     </row>
     <row r="177" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A177" s="39" t="s">
+      <c r="A177" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B177" s="39"/>
+      <c r="B177" s="36"/>
       <c r="C177" s="16">
         <v>0.90681088712613755</v>
       </c>
@@ -5901,10 +5901,10 @@
       <c r="E177" s="16">
         <v>0.57241815167597698</v>
       </c>
-      <c r="G177" s="42" t="s">
+      <c r="G177" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H177" s="42"/>
+      <c r="H177" s="37"/>
       <c r="I177" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -5916,13 +5916,13 @@
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A179" s="34" t="s">
+      <c r="A179" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B179" s="35"/>
-      <c r="C179" s="35"/>
-      <c r="D179" s="35"/>
-      <c r="E179" s="36"/>
+      <c r="B179" s="41"/>
+      <c r="C179" s="41"/>
+      <c r="D179" s="41"/>
+      <c r="E179" s="42"/>
     </row>
     <row r="181" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="29" t="s">
@@ -5967,10 +5967,10 @@
       </c>
     </row>
     <row r="182" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A182" s="42" t="s">
+      <c r="A182" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B182" s="42"/>
+      <c r="B182" s="37"/>
       <c r="C182" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -6014,10 +6014,10 @@
       </c>
     </row>
     <row r="183" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A183" s="42" t="s">
+      <c r="A183" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B183" s="42"/>
+      <c r="B183" s="37"/>
       <c r="C183" s="17">
         <v>1.139774463162712</v>
       </c>
@@ -6061,10 +6061,10 @@
       </c>
     </row>
     <row r="184" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A184" s="42" t="s">
+      <c r="A184" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B184" s="42"/>
+      <c r="B184" s="37"/>
       <c r="C184" s="17">
         <v>1.139774463162712</v>
       </c>
@@ -6108,10 +6108,10 @@
       </c>
     </row>
     <row r="185" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A185" s="42" t="s">
+      <c r="A185" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B185" s="42"/>
+      <c r="B185" s="37"/>
       <c r="C185" s="17">
         <v>1.6659647975616241</v>
       </c>
@@ -6155,10 +6155,10 @@
       </c>
     </row>
     <row r="186" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A186" s="42" t="s">
+      <c r="A186" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B186" s="42"/>
+      <c r="B186" s="37"/>
       <c r="C186" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -6220,19 +6220,19 @@
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A191" s="37" t="s">
+      <c r="A191" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B191" s="37"/>
-      <c r="C191" s="37"/>
-      <c r="D191" s="37"/>
-      <c r="E191" s="37"/>
+      <c r="B191" s="34"/>
+      <c r="C191" s="34"/>
+      <c r="D191" s="34"/>
+      <c r="E191" s="34"/>
     </row>
     <row r="192" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A192" s="38" t="s">
+      <c r="A192" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B192" s="38"/>
+      <c r="B192" s="35"/>
       <c r="C192" s="2" t="s">
         <v>3</v>
       </c>
@@ -6242,10 +6242,10 @@
       <c r="E192" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G192" s="38" t="s">
+      <c r="G192" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H192" s="38"/>
+      <c r="H192" s="35"/>
       <c r="I192" s="2" t="s">
         <v>3</v>
       </c>
@@ -6257,10 +6257,10 @@
       </c>
     </row>
     <row r="193" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A193" s="39" t="s">
+      <c r="A193" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B193" s="39"/>
+      <c r="B193" s="36"/>
       <c r="C193" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -6270,10 +6270,10 @@
       <c r="E193" s="17">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G193" s="39" t="s">
+      <c r="G193" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H193" s="39"/>
+      <c r="H193" s="36"/>
       <c r="I193" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -6285,10 +6285,10 @@
       </c>
     </row>
     <row r="194" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A194" s="39" t="s">
+      <c r="A194" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B194" s="39"/>
+      <c r="B194" s="36"/>
       <c r="C194" s="17">
         <v>1.139774463162712</v>
       </c>
@@ -6298,10 +6298,10 @@
       <c r="E194" s="17">
         <v>0.27907626525917928</v>
       </c>
-      <c r="G194" s="39" t="s">
+      <c r="G194" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H194" s="39"/>
+      <c r="H194" s="36"/>
       <c r="I194" s="17">
         <v>1.139774463162712</v>
       </c>
@@ -6313,10 +6313,10 @@
       </c>
     </row>
     <row r="195" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A195" s="39" t="s">
+      <c r="A195" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B195" s="39"/>
+      <c r="B195" s="36"/>
       <c r="C195" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -6326,10 +6326,10 @@
       <c r="E195" s="17">
         <v>0.57241815167597698</v>
       </c>
-      <c r="G195" s="39" t="s">
+      <c r="G195" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H195" s="39"/>
+      <c r="H195" s="36"/>
       <c r="I195" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -6341,10 +6341,10 @@
       </c>
     </row>
     <row r="196" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A196" s="39" t="s">
+      <c r="A196" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B196" s="39"/>
+      <c r="B196" s="36"/>
       <c r="C196" s="16">
         <v>1.6659647975616241</v>
       </c>
@@ -6354,10 +6354,10 @@
       <c r="E196" s="16">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G196" s="39" t="s">
+      <c r="G196" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H196" s="39"/>
+      <c r="H196" s="36"/>
       <c r="I196" s="16">
         <f>I193+$B$189*((2--2)*$I$184-2)</f>
         <v>1.7349694689965689</v>
@@ -6372,10 +6372,10 @@
       </c>
     </row>
     <row r="197" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A197" s="39" t="s">
+      <c r="A197" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B197" s="39"/>
+      <c r="B197" s="36"/>
       <c r="C197" s="16">
         <v>1.139774463162712</v>
       </c>
@@ -6385,10 +6385,10 @@
       <c r="E197" s="16">
         <v>0.279076265259179</v>
       </c>
-      <c r="G197" s="39" t="s">
+      <c r="G197" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H197" s="39"/>
+      <c r="H197" s="36"/>
       <c r="I197" s="16">
         <f>I193+$B$189*((2--2)*$I$185-2)</f>
         <v>1.5048195800117559</v>
@@ -6403,19 +6403,19 @@
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A199" s="34" t="s">
+      <c r="A199" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B199" s="35"/>
-      <c r="C199" s="35"/>
-      <c r="D199" s="35"/>
-      <c r="E199" s="36"/>
+      <c r="B199" s="41"/>
+      <c r="C199" s="41"/>
+      <c r="D199" s="41"/>
+      <c r="E199" s="42"/>
     </row>
     <row r="200" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A200" s="38" t="s">
+      <c r="A200" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B200" s="38"/>
+      <c r="B200" s="35"/>
       <c r="C200" s="2" t="s">
         <v>3</v>
       </c>
@@ -6454,10 +6454,10 @@
       </c>
     </row>
     <row r="201" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A201" s="41" t="s">
+      <c r="A201" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B201" s="41"/>
+      <c r="B201" s="38"/>
       <c r="C201" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -6501,10 +6501,10 @@
       </c>
     </row>
     <row r="202" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A202" s="42" t="s">
+      <c r="A202" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B202" s="42"/>
+      <c r="B202" s="37"/>
       <c r="C202" s="17">
         <v>1.139774463162712</v>
       </c>
@@ -6548,10 +6548,10 @@
       </c>
     </row>
     <row r="203" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A203" s="42" t="s">
+      <c r="A203" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B203" s="42"/>
+      <c r="B203" s="37"/>
       <c r="C203" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -6595,10 +6595,10 @@
       </c>
     </row>
     <row r="204" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A204" s="42" t="s">
+      <c r="A204" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B204" s="42"/>
+      <c r="B204" s="37"/>
       <c r="C204" s="17">
         <f>C201+$B$189*((2--2)*$I$184-2)</f>
         <v>1.7349694689965689</v>
@@ -6645,10 +6645,10 @@
       </c>
     </row>
     <row r="205" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A205" s="42" t="s">
+      <c r="A205" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B205" s="42"/>
+      <c r="B205" s="37"/>
       <c r="C205" s="17">
         <f>C201+$B$189*((2--2)*$I$185-2)</f>
         <v>1.5048195800117559</v>
@@ -6713,19 +6713,19 @@
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A210" s="37" t="s">
+      <c r="A210" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B210" s="37"/>
-      <c r="C210" s="37"/>
-      <c r="D210" s="37"/>
-      <c r="E210" s="37"/>
+      <c r="B210" s="34"/>
+      <c r="C210" s="34"/>
+      <c r="D210" s="34"/>
+      <c r="E210" s="34"/>
     </row>
     <row r="211" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A211" s="38" t="s">
+      <c r="A211" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B211" s="38"/>
+      <c r="B211" s="35"/>
       <c r="C211" s="2" t="s">
         <v>3</v>
       </c>
@@ -6750,10 +6750,10 @@
       </c>
     </row>
     <row r="212" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A212" s="39" t="s">
+      <c r="A212" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B212" s="39"/>
+      <c r="B212" s="36"/>
       <c r="C212" s="17">
         <v>0.72856509936624447</v>
       </c>
@@ -6763,10 +6763,10 @@
       <c r="E212" s="17">
         <v>-0.13213309853728838</v>
       </c>
-      <c r="G212" s="42" t="s">
+      <c r="G212" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H212" s="42"/>
+      <c r="H212" s="37"/>
       <c r="I212" s="17">
         <v>0.72856509936624447</v>
       </c>
@@ -6778,10 +6778,10 @@
       </c>
     </row>
     <row r="213" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A213" s="39" t="s">
+      <c r="A213" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B213" s="39"/>
+      <c r="B213" s="36"/>
       <c r="C213" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -6791,10 +6791,10 @@
       <c r="E213" s="17">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G213" s="42" t="s">
+      <c r="G213" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H213" s="42"/>
+      <c r="H213" s="37"/>
       <c r="I213" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -6806,10 +6806,10 @@
       </c>
     </row>
     <row r="214" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A214" s="39" t="s">
+      <c r="A214" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B214" s="39"/>
+      <c r="B214" s="36"/>
       <c r="C214" s="17">
         <v>1.1251322589217825</v>
       </c>
@@ -6819,10 +6819,10 @@
       <c r="E214" s="17">
         <v>0.26443406101824962</v>
       </c>
-      <c r="G214" s="42" t="s">
+      <c r="G214" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H214" s="42"/>
+      <c r="H214" s="37"/>
       <c r="I214" s="17">
         <v>1.1251322589217825</v>
       </c>
@@ -6834,10 +6834,10 @@
       </c>
     </row>
     <row r="215" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A215" s="39" t="s">
+      <c r="A215" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B215" s="39"/>
+      <c r="B215" s="36"/>
       <c r="C215" s="16">
         <v>0.90681088712613755</v>
       </c>
@@ -6847,10 +6847,10 @@
       <c r="E215" s="16">
         <v>-0.5902360557029267</v>
       </c>
-      <c r="G215" s="42" t="s">
+      <c r="G215" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H215" s="42"/>
+      <c r="H215" s="37"/>
       <c r="I215" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -6862,10 +6862,10 @@
       </c>
     </row>
     <row r="216" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A216" s="39" t="s">
+      <c r="A216" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B216" s="39"/>
+      <c r="B216" s="36"/>
       <c r="C216" s="16">
         <v>0.27046214220060616</v>
       </c>
@@ -6875,10 +6875,10 @@
       <c r="E216" s="16">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G216" s="42" t="s">
+      <c r="G216" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H216" s="42"/>
+      <c r="H216" s="37"/>
       <c r="I216" s="17">
         <v>0.27046214220060616</v>
       </c>
@@ -6890,13 +6890,13 @@
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A219" s="34" t="s">
+      <c r="A219" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B219" s="35"/>
-      <c r="C219" s="35"/>
-      <c r="D219" s="35"/>
-      <c r="E219" s="36"/>
+      <c r="B219" s="41"/>
+      <c r="C219" s="41"/>
+      <c r="D219" s="41"/>
+      <c r="E219" s="42"/>
     </row>
     <row r="220" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="29" t="s">
@@ -6941,10 +6941,10 @@
       </c>
     </row>
     <row r="221" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A221" s="42" t="s">
+      <c r="A221" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B221" s="42"/>
+      <c r="B221" s="37"/>
       <c r="C221" s="17">
         <v>0.72856509936624447</v>
       </c>
@@ -6988,10 +6988,10 @@
       </c>
     </row>
     <row r="222" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A222" s="42" t="s">
+      <c r="A222" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B222" s="42"/>
+      <c r="B222" s="37"/>
       <c r="C222" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -7035,10 +7035,10 @@
       </c>
     </row>
     <row r="223" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A223" s="42" t="s">
+      <c r="A223" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B223" s="42"/>
+      <c r="B223" s="37"/>
       <c r="C223" s="17">
         <v>1.1251322589217825</v>
       </c>
@@ -7082,10 +7082,10 @@
       </c>
     </row>
     <row r="224" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A224" s="42" t="s">
+      <c r="A224" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B224" s="42"/>
+      <c r="B224" s="37"/>
       <c r="C224" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -7129,10 +7129,10 @@
       </c>
     </row>
     <row r="225" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A225" s="41" t="s">
+      <c r="A225" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B225" s="41"/>
+      <c r="B225" s="38"/>
       <c r="C225" s="17">
         <v>0.27046214220060616</v>
       </c>
@@ -7194,19 +7194,19 @@
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A230" s="37" t="s">
+      <c r="A230" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B230" s="37"/>
-      <c r="C230" s="37"/>
-      <c r="D230" s="37"/>
-      <c r="E230" s="37"/>
+      <c r="B230" s="34"/>
+      <c r="C230" s="34"/>
+      <c r="D230" s="34"/>
+      <c r="E230" s="34"/>
     </row>
     <row r="231" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A231" s="38" t="s">
+      <c r="A231" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B231" s="38"/>
+      <c r="B231" s="35"/>
       <c r="C231" s="2" t="s">
         <v>3</v>
       </c>
@@ -7216,10 +7216,10 @@
       <c r="E231" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G231" s="38" t="s">
+      <c r="G231" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H231" s="38"/>
+      <c r="H231" s="35"/>
       <c r="I231" s="2" t="s">
         <v>3</v>
       </c>
@@ -7231,10 +7231,10 @@
       </c>
     </row>
     <row r="232" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A232" s="39" t="s">
+      <c r="A232" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B232" s="39"/>
+      <c r="B232" s="36"/>
       <c r="C232" s="17">
         <v>0.27046214220060599</v>
       </c>
@@ -7244,10 +7244,10 @@
       <c r="E232" s="17">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G232" s="39" t="s">
+      <c r="G232" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H232" s="39"/>
+      <c r="H232" s="36"/>
       <c r="I232" s="17">
         <v>0.27046214220060599</v>
       </c>
@@ -7259,10 +7259,10 @@
       </c>
     </row>
     <row r="233" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A233" s="39" t="s">
+      <c r="A233" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B233" s="39"/>
+      <c r="B233" s="36"/>
       <c r="C233" s="16">
         <v>0.72856509936624447</v>
       </c>
@@ -7272,10 +7272,10 @@
       <c r="E233" s="16">
         <v>-0.5902360557029267</v>
       </c>
-      <c r="G233" s="39" t="s">
+      <c r="G233" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H233" s="39"/>
+      <c r="H233" s="36"/>
       <c r="I233" s="16">
         <v>-0.37106197895786286</v>
       </c>
@@ -7287,10 +7287,10 @@
       </c>
     </row>
     <row r="234" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A234" s="39" t="s">
+      <c r="A234" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B234" s="39"/>
+      <c r="B234" s="36"/>
       <c r="C234" s="17">
         <v>0.90681088712613755</v>
       </c>
@@ -7300,10 +7300,10 @@
       <c r="E234" s="17">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G234" s="39" t="s">
+      <c r="G234" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H234" s="39"/>
+      <c r="H234" s="36"/>
       <c r="I234" s="16">
         <v>-3.0557704548108522E-2</v>
       </c>
@@ -7315,10 +7315,10 @@
       </c>
     </row>
     <row r="235" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A235" s="39" t="s">
+      <c r="A235" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B235" s="39"/>
+      <c r="B235" s="36"/>
       <c r="C235" s="17">
         <v>1.1251322589217825</v>
       </c>
@@ -7328,10 +7328,10 @@
       <c r="E235" s="17">
         <v>0.26443406101824962</v>
       </c>
-      <c r="G235" s="39" t="s">
+      <c r="G235" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H235" s="39"/>
+      <c r="H235" s="36"/>
       <c r="I235" s="16">
         <v>0.97077102911463509</v>
       </c>
@@ -7343,10 +7343,10 @@
       </c>
     </row>
     <row r="236" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A236" s="39" t="s">
+      <c r="A236" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B236" s="39"/>
+      <c r="B236" s="36"/>
       <c r="C236" s="16">
         <v>0.27046214220060616</v>
       </c>
@@ -7356,10 +7356,10 @@
       <c r="E236" s="16">
         <v>0.26443406101825001</v>
       </c>
-      <c r="G236" s="39" t="s">
+      <c r="G236" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H236" s="39"/>
+      <c r="H236" s="36"/>
       <c r="I236" s="17">
         <v>0.27046214220060616</v>
       </c>
@@ -7371,19 +7371,19 @@
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A238" s="34" t="s">
+      <c r="A238" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B238" s="35"/>
-      <c r="C238" s="35"/>
-      <c r="D238" s="35"/>
-      <c r="E238" s="36"/>
+      <c r="B238" s="41"/>
+      <c r="C238" s="41"/>
+      <c r="D238" s="41"/>
+      <c r="E238" s="42"/>
     </row>
     <row r="239" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A239" s="38" t="s">
+      <c r="A239" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B239" s="38"/>
+      <c r="B239" s="35"/>
       <c r="C239" s="2" t="s">
         <v>3</v>
       </c>
@@ -7422,10 +7422,10 @@
       </c>
     </row>
     <row r="240" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A240" s="40" t="s">
+      <c r="A240" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B240" s="40"/>
+      <c r="B240" s="39"/>
       <c r="C240" s="17">
         <v>0.27046214220060599</v>
       </c>
@@ -7469,10 +7469,10 @@
       </c>
     </row>
     <row r="241" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A241" s="39" t="s">
+      <c r="A241" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B241" s="39"/>
+      <c r="B241" s="36"/>
       <c r="C241" s="17">
         <v>-0.37106197895786286</v>
       </c>
@@ -7516,10 +7516,10 @@
       </c>
     </row>
     <row r="242" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A242" s="39" t="s">
+      <c r="A242" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B242" s="39"/>
+      <c r="B242" s="36"/>
       <c r="C242" s="17">
         <v>-3.0557704548108522E-2</v>
       </c>
@@ -7563,10 +7563,10 @@
       </c>
     </row>
     <row r="243" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A243" s="39" t="s">
+      <c r="A243" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B243" s="39"/>
+      <c r="B243" s="36"/>
       <c r="C243" s="17">
         <v>0.97077102911463509</v>
       </c>
@@ -7610,10 +7610,10 @@
       </c>
     </row>
     <row r="244" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A244" s="39" t="s">
+      <c r="A244" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B244" s="39"/>
+      <c r="B244" s="36"/>
       <c r="C244" s="17">
         <v>0.27046214220060616</v>
       </c>
@@ -7675,19 +7675,19 @@
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A249" s="37" t="s">
+      <c r="A249" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B249" s="37"/>
-      <c r="C249" s="37"/>
-      <c r="D249" s="37"/>
-      <c r="E249" s="37"/>
+      <c r="B249" s="34"/>
+      <c r="C249" s="34"/>
+      <c r="D249" s="34"/>
+      <c r="E249" s="34"/>
     </row>
     <row r="250" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A250" s="38" t="s">
+      <c r="A250" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B250" s="38"/>
+      <c r="B250" s="35"/>
       <c r="C250" s="2" t="s">
         <v>3</v>
       </c>
@@ -7697,10 +7697,10 @@
       <c r="E250" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G250" s="38" t="s">
+      <c r="G250" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H250" s="38"/>
+      <c r="H250" s="35"/>
       <c r="I250" s="2" t="s">
         <v>3</v>
       </c>
@@ -7712,10 +7712,10 @@
       </c>
     </row>
     <row r="251" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A251" s="39" t="s">
+      <c r="A251" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B251" s="39"/>
+      <c r="B251" s="36"/>
       <c r="C251" s="17">
         <v>0.27046214220060599</v>
       </c>
@@ -7725,10 +7725,10 @@
       <c r="E251" s="17">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G251" s="39" t="s">
+      <c r="G251" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H251" s="39"/>
+      <c r="H251" s="36"/>
       <c r="I251" s="17">
         <v>0.27046214220060599</v>
       </c>
@@ -7740,10 +7740,10 @@
       </c>
     </row>
     <row r="252" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A252" s="39" t="s">
+      <c r="A252" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B252" s="39"/>
+      <c r="B252" s="36"/>
       <c r="C252" s="17">
         <v>0.27046214220060616</v>
       </c>
@@ -7753,10 +7753,10 @@
       <c r="E252" s="17">
         <v>0.26443406101825001</v>
       </c>
-      <c r="G252" s="39" t="s">
+      <c r="G252" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H252" s="39"/>
+      <c r="H252" s="36"/>
       <c r="I252" s="17">
         <v>0.27046214220060616</v>
       </c>
@@ -7768,10 +7768,10 @@
       </c>
     </row>
     <row r="253" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A253" s="39" t="s">
+      <c r="A253" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B253" s="39"/>
+      <c r="B253" s="36"/>
       <c r="C253" s="17">
         <v>-3.0557704548108522E-2</v>
       </c>
@@ -7781,10 +7781,10 @@
       <c r="E253" s="17">
         <v>-0.25490715752610998</v>
       </c>
-      <c r="G253" s="39" t="s">
+      <c r="G253" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H253" s="39"/>
+      <c r="H253" s="36"/>
       <c r="I253" s="24">
         <v>0.14569009076868084</v>
       </c>
@@ -7796,10 +7796,10 @@
       </c>
     </row>
     <row r="254" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A254" s="39" t="s">
+      <c r="A254" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B254" s="39"/>
+      <c r="B254" s="36"/>
       <c r="C254" s="24">
         <v>-3.0557704548108522E-2</v>
       </c>
@@ -7809,10 +7809,10 @@
       <c r="E254" s="24">
         <v>-0.25490715752610998</v>
       </c>
-      <c r="G254" s="39" t="s">
+      <c r="G254" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H254" s="39"/>
+      <c r="H254" s="36"/>
       <c r="I254" s="24">
         <v>0.42328710245755741</v>
       </c>
@@ -7824,10 +7824,10 @@
       </c>
     </row>
     <row r="255" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A255" s="39" t="s">
+      <c r="A255" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B255" s="39"/>
+      <c r="B255" s="36"/>
       <c r="C255" s="24">
         <v>0.27046214220060616</v>
       </c>
@@ -7837,10 +7837,10 @@
       <c r="E255" s="24">
         <v>0.26443406101825001</v>
       </c>
-      <c r="G255" s="39" t="s">
+      <c r="G255" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H255" s="39"/>
+      <c r="H255" s="36"/>
       <c r="I255" s="24">
         <v>-0.17498197924726594</v>
       </c>
@@ -7852,19 +7852,19 @@
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A257" s="34" t="s">
+      <c r="A257" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B257" s="35"/>
-      <c r="C257" s="35"/>
-      <c r="D257" s="35"/>
-      <c r="E257" s="36"/>
+      <c r="B257" s="41"/>
+      <c r="C257" s="41"/>
+      <c r="D257" s="41"/>
+      <c r="E257" s="42"/>
     </row>
     <row r="259" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A259" s="38" t="s">
+      <c r="A259" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B259" s="38"/>
+      <c r="B259" s="35"/>
       <c r="C259" s="2" t="s">
         <v>3</v>
       </c>
@@ -7903,10 +7903,10 @@
       </c>
     </row>
     <row r="260" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A260" s="40" t="s">
+      <c r="A260" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B260" s="40"/>
+      <c r="B260" s="39"/>
       <c r="C260" s="17">
         <v>0.27046214220060599</v>
       </c>
@@ -7950,10 +7950,10 @@
       </c>
     </row>
     <row r="261" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A261" s="39" t="s">
+      <c r="A261" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B261" s="39"/>
+      <c r="B261" s="36"/>
       <c r="C261" s="17">
         <v>0.27046214220060616</v>
       </c>
@@ -7997,10 +7997,10 @@
       </c>
     </row>
     <row r="262" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A262" s="39" t="s">
+      <c r="A262" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B262" s="39"/>
+      <c r="B262" s="36"/>
       <c r="C262" s="17">
         <v>0.14569009076868084</v>
       </c>
@@ -8044,10 +8044,10 @@
       </c>
     </row>
     <row r="263" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A263" s="39" t="s">
+      <c r="A263" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B263" s="39"/>
+      <c r="B263" s="36"/>
       <c r="C263" s="17">
         <v>0.42328710245755741</v>
       </c>
@@ -8091,10 +8091,10 @@
       </c>
     </row>
     <row r="264" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A264" s="39" t="s">
+      <c r="A264" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B264" s="39"/>
+      <c r="B264" s="36"/>
       <c r="C264" s="17">
         <v>-0.17498197924726594</v>
       </c>
@@ -8156,19 +8156,19 @@
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A269" s="37" t="s">
+      <c r="A269" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B269" s="37"/>
-      <c r="C269" s="37"/>
-      <c r="D269" s="37"/>
-      <c r="E269" s="37"/>
+      <c r="B269" s="34"/>
+      <c r="C269" s="34"/>
+      <c r="D269" s="34"/>
+      <c r="E269" s="34"/>
     </row>
     <row r="270" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A270" s="38" t="s">
+      <c r="A270" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B270" s="38"/>
+      <c r="B270" s="35"/>
       <c r="C270" s="2" t="s">
         <v>3</v>
       </c>
@@ -8178,10 +8178,10 @@
       <c r="E270" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G270" s="38" t="s">
+      <c r="G270" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H270" s="38"/>
+      <c r="H270" s="35"/>
       <c r="I270" s="2" t="s">
         <v>3</v>
       </c>
@@ -8193,10 +8193,10 @@
       </c>
     </row>
     <row r="271" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A271" s="39" t="s">
+      <c r="A271" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B271" s="39"/>
+      <c r="B271" s="36"/>
       <c r="C271" s="17">
         <v>0.27046214220060599</v>
       </c>
@@ -8206,10 +8206,10 @@
       <c r="E271" s="17">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G271" s="39" t="s">
+      <c r="G271" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H271" s="39"/>
+      <c r="H271" s="36"/>
       <c r="I271" s="16">
         <v>0.12462155040679915</v>
       </c>
@@ -8221,10 +8221,10 @@
       </c>
     </row>
     <row r="272" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A272" s="39" t="s">
+      <c r="A272" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B272" s="39"/>
+      <c r="B272" s="36"/>
       <c r="C272" s="17">
         <v>0.27046214220060616</v>
       </c>
@@ -8234,10 +8234,10 @@
       <c r="E272" s="17">
         <v>0.26443406101825001</v>
       </c>
-      <c r="G272" s="39" t="s">
+      <c r="G272" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H272" s="39"/>
+      <c r="H272" s="36"/>
       <c r="I272" s="16">
         <v>-0.30780105765851445</v>
       </c>
@@ -8249,10 +8249,10 @@
       </c>
     </row>
     <row r="273" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A273" s="39" t="s">
+      <c r="A273" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B273" s="39"/>
+      <c r="B273" s="36"/>
       <c r="C273" s="16">
         <v>-0.17498197924726594</v>
       </c>
@@ -8262,10 +8262,10 @@
       <c r="E273" s="16">
         <v>-7.8659362209320446E-2</v>
       </c>
-      <c r="G273" s="39" t="s">
+      <c r="G273" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H273" s="39"/>
+      <c r="H273" s="36"/>
       <c r="I273" s="17">
         <v>-0.17498197924726594</v>
       </c>
@@ -8277,10 +8277,10 @@
       </c>
     </row>
     <row r="274" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A274" s="39" t="s">
+      <c r="A274" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B274" s="39"/>
+      <c r="B274" s="36"/>
       <c r="C274" s="16">
         <v>0.42328710245755741</v>
       </c>
@@ -8290,10 +8290,10 @@
       <c r="E274" s="16">
         <v>4.6112689222604697E-2</v>
       </c>
-      <c r="G274" s="39" t="s">
+      <c r="G274" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H274" s="39"/>
+      <c r="H274" s="36"/>
       <c r="I274" s="17">
         <v>0.42328710245755741</v>
       </c>
@@ -8305,10 +8305,10 @@
       </c>
     </row>
     <row r="275" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A275" s="39" t="s">
+      <c r="A275" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B275" s="39"/>
+      <c r="B275" s="36"/>
       <c r="C275" s="16">
         <v>0.27046214220060599</v>
       </c>
@@ -8318,10 +8318,10 @@
       <c r="E275" s="16">
         <v>-7.8659362209320446E-2</v>
       </c>
-      <c r="G275" s="39" t="s">
+      <c r="G275" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H275" s="39"/>
+      <c r="H275" s="36"/>
       <c r="I275" s="16">
         <v>5.5273726492127445E-2</v>
       </c>
@@ -8333,19 +8333,19 @@
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A277" s="34" t="s">
+      <c r="A277" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B277" s="35"/>
-      <c r="C277" s="35"/>
-      <c r="D277" s="35"/>
-      <c r="E277" s="36"/>
+      <c r="B277" s="41"/>
+      <c r="C277" s="41"/>
+      <c r="D277" s="41"/>
+      <c r="E277" s="42"/>
     </row>
     <row r="278" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A278" s="38" t="s">
+      <c r="A278" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B278" s="38"/>
+      <c r="B278" s="35"/>
       <c r="C278" s="2" t="s">
         <v>3</v>
       </c>
@@ -8384,10 +8384,10 @@
       </c>
     </row>
     <row r="279" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A279" s="42" t="s">
+      <c r="A279" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B279" s="42"/>
+      <c r="B279" s="37"/>
       <c r="C279" s="17">
         <v>0.12462155040679915</v>
       </c>
@@ -8431,10 +8431,10 @@
       </c>
     </row>
     <row r="280" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A280" s="42" t="s">
+      <c r="A280" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B280" s="42"/>
+      <c r="B280" s="37"/>
       <c r="C280" s="17">
         <v>-0.30780105765851445</v>
       </c>
@@ -8478,10 +8478,10 @@
       </c>
     </row>
     <row r="281" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A281" s="41" t="s">
+      <c r="A281" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B281" s="41"/>
+      <c r="B281" s="38"/>
       <c r="C281" s="17">
         <v>-0.17498197924726594</v>
       </c>
@@ -8525,10 +8525,10 @@
       </c>
     </row>
     <row r="282" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A282" s="42" t="s">
+      <c r="A282" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B282" s="42"/>
+      <c r="B282" s="37"/>
       <c r="C282" s="17">
         <v>0.42328710245755741</v>
       </c>
@@ -8572,10 +8572,10 @@
       </c>
     </row>
     <row r="283" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A283" s="42" t="s">
+      <c r="A283" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B283" s="42"/>
+      <c r="B283" s="37"/>
       <c r="C283" s="17">
         <v>5.5273726492127445E-2</v>
       </c>
@@ -8637,19 +8637,19 @@
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A287" s="37" t="s">
+      <c r="A287" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B287" s="37"/>
-      <c r="C287" s="37"/>
-      <c r="D287" s="37"/>
-      <c r="E287" s="37"/>
+      <c r="B287" s="34"/>
+      <c r="C287" s="34"/>
+      <c r="D287" s="34"/>
+      <c r="E287" s="34"/>
     </row>
     <row r="288" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A288" s="38" t="s">
+      <c r="A288" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B288" s="38"/>
+      <c r="B288" s="35"/>
       <c r="C288" s="2" t="s">
         <v>3</v>
       </c>
@@ -8659,10 +8659,10 @@
       <c r="E288" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G288" s="38" t="s">
+      <c r="G288" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H288" s="38"/>
+      <c r="H288" s="35"/>
       <c r="I288" s="2" t="s">
         <v>3</v>
       </c>
@@ -8814,19 +8814,19 @@
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A295" s="34" t="s">
+      <c r="A295" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B295" s="35"/>
-      <c r="C295" s="35"/>
-      <c r="D295" s="35"/>
-      <c r="E295" s="36"/>
+      <c r="B295" s="41"/>
+      <c r="C295" s="41"/>
+      <c r="D295" s="41"/>
+      <c r="E295" s="42"/>
     </row>
     <row r="296" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A296" s="38" t="s">
+      <c r="A296" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B296" s="38"/>
+      <c r="B296" s="35"/>
       <c r="C296" s="2" t="s">
         <v>3</v>
       </c>
@@ -9118,19 +9118,19 @@
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A306" s="37" t="s">
+      <c r="A306" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B306" s="37"/>
-      <c r="C306" s="37"/>
-      <c r="D306" s="37"/>
-      <c r="E306" s="37"/>
+      <c r="B306" s="34"/>
+      <c r="C306" s="34"/>
+      <c r="D306" s="34"/>
+      <c r="E306" s="34"/>
     </row>
     <row r="307" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A307" s="38" t="s">
+      <c r="A307" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B307" s="38"/>
+      <c r="B307" s="35"/>
       <c r="C307" s="2" t="s">
         <v>3</v>
       </c>
@@ -9140,10 +9140,10 @@
       <c r="E307" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G307" s="38" t="s">
+      <c r="G307" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H307" s="38"/>
+      <c r="H307" s="35"/>
       <c r="I307" s="2" t="s">
         <v>3</v>
       </c>
@@ -9295,19 +9295,19 @@
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A314" s="34" t="s">
+      <c r="A314" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B314" s="35"/>
-      <c r="C314" s="35"/>
-      <c r="D314" s="35"/>
-      <c r="E314" s="36"/>
+      <c r="B314" s="41"/>
+      <c r="C314" s="41"/>
+      <c r="D314" s="41"/>
+      <c r="E314" s="42"/>
     </row>
     <row r="315" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A315" s="38" t="s">
+      <c r="A315" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B315" s="38"/>
+      <c r="B315" s="35"/>
       <c r="C315" s="2" t="s">
         <v>3</v>
       </c>
@@ -9599,19 +9599,19 @@
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A325" s="37" t="s">
+      <c r="A325" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B325" s="37"/>
-      <c r="C325" s="37"/>
-      <c r="D325" s="37"/>
-      <c r="E325" s="37"/>
+      <c r="B325" s="34"/>
+      <c r="C325" s="34"/>
+      <c r="D325" s="34"/>
+      <c r="E325" s="34"/>
     </row>
     <row r="326" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A326" s="38" t="s">
+      <c r="A326" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B326" s="38"/>
+      <c r="B326" s="35"/>
       <c r="C326" s="2" t="s">
         <v>3</v>
       </c>
@@ -9621,10 +9621,10 @@
       <c r="E326" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G326" s="38" t="s">
+      <c r="G326" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H326" s="38"/>
+      <c r="H326" s="35"/>
       <c r="I326" s="2" t="s">
         <v>3</v>
       </c>
@@ -9776,19 +9776,19 @@
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A333" s="34" t="s">
+      <c r="A333" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B333" s="35"/>
-      <c r="C333" s="35"/>
-      <c r="D333" s="35"/>
-      <c r="E333" s="36"/>
+      <c r="B333" s="41"/>
+      <c r="C333" s="41"/>
+      <c r="D333" s="41"/>
+      <c r="E333" s="42"/>
     </row>
     <row r="334" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A334" s="38" t="s">
+      <c r="A334" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B334" s="38"/>
+      <c r="B334" s="35"/>
       <c r="C334" s="2" t="s">
         <v>3</v>
       </c>
@@ -10080,19 +10080,19 @@
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A344" s="37" t="s">
+      <c r="A344" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B344" s="37"/>
-      <c r="C344" s="37"/>
-      <c r="D344" s="37"/>
-      <c r="E344" s="37"/>
+      <c r="B344" s="34"/>
+      <c r="C344" s="34"/>
+      <c r="D344" s="34"/>
+      <c r="E344" s="34"/>
     </row>
     <row r="345" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A345" s="38" t="s">
+      <c r="A345" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B345" s="38"/>
+      <c r="B345" s="35"/>
       <c r="C345" s="2" t="s">
         <v>3</v>
       </c>
@@ -10102,10 +10102,10 @@
       <c r="E345" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G345" s="38" t="s">
+      <c r="G345" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H345" s="38"/>
+      <c r="H345" s="35"/>
       <c r="I345" s="2" t="s">
         <v>3</v>
       </c>
@@ -10257,19 +10257,19 @@
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A352" s="34" t="s">
+      <c r="A352" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B352" s="35"/>
-      <c r="C352" s="35"/>
-      <c r="D352" s="35"/>
-      <c r="E352" s="36"/>
+      <c r="B352" s="41"/>
+      <c r="C352" s="41"/>
+      <c r="D352" s="41"/>
+      <c r="E352" s="42"/>
     </row>
     <row r="353" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A353" s="38" t="s">
+      <c r="A353" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B353" s="38"/>
+      <c r="B353" s="35"/>
       <c r="C353" s="2" t="s">
         <v>3</v>
       </c>
@@ -10561,19 +10561,19 @@
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A363" s="37" t="s">
+      <c r="A363" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B363" s="37"/>
-      <c r="C363" s="37"/>
-      <c r="D363" s="37"/>
-      <c r="E363" s="37"/>
+      <c r="B363" s="34"/>
+      <c r="C363" s="34"/>
+      <c r="D363" s="34"/>
+      <c r="E363" s="34"/>
     </row>
     <row r="364" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A364" s="38" t="s">
+      <c r="A364" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B364" s="38"/>
+      <c r="B364" s="35"/>
       <c r="C364" s="2" t="s">
         <v>3</v>
       </c>
@@ -10738,13 +10738,13 @@
       </c>
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A371" s="34" t="s">
+      <c r="A371" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B371" s="35"/>
-      <c r="C371" s="35"/>
-      <c r="D371" s="35"/>
-      <c r="E371" s="36"/>
+      <c r="B371" s="41"/>
+      <c r="C371" s="41"/>
+      <c r="D371" s="41"/>
+      <c r="E371" s="42"/>
     </row>
     <row r="372" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A372" s="29" t="s">
@@ -11042,19 +11042,19 @@
       </c>
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A382" s="37" t="s">
+      <c r="A382" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B382" s="37"/>
-      <c r="C382" s="37"/>
-      <c r="D382" s="37"/>
-      <c r="E382" s="37"/>
+      <c r="B382" s="34"/>
+      <c r="C382" s="34"/>
+      <c r="D382" s="34"/>
+      <c r="E382" s="34"/>
     </row>
     <row r="383" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A383" s="38" t="s">
+      <c r="A383" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B383" s="38"/>
+      <c r="B383" s="35"/>
       <c r="C383" s="2" t="s">
         <v>3</v>
       </c>
@@ -11339,15 +11339,6 @@
     <mergeCell ref="A277:E277"/>
     <mergeCell ref="A274:B274"/>
     <mergeCell ref="A275:B275"/>
-    <mergeCell ref="G255:H255"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A255:B255"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:B3"/>
@@ -11587,8 +11578,6 @@
     <mergeCell ref="A234:B234"/>
     <mergeCell ref="A235:B235"/>
     <mergeCell ref="A238:E238"/>
-    <mergeCell ref="A249:E249"/>
-    <mergeCell ref="A250:B250"/>
     <mergeCell ref="A372:B372"/>
     <mergeCell ref="A373:B373"/>
     <mergeCell ref="A374:B374"/>
@@ -11611,12 +11600,25 @@
     <mergeCell ref="G253:H253"/>
     <mergeCell ref="G254:H254"/>
     <mergeCell ref="A371:E371"/>
-    <mergeCell ref="A382:E382"/>
-    <mergeCell ref="A383:B383"/>
-    <mergeCell ref="A384:B384"/>
-    <mergeCell ref="A385:B385"/>
-    <mergeCell ref="A386:B386"/>
-    <mergeCell ref="A387:B387"/>
+    <mergeCell ref="G255:H255"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="A291:B291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="A287:E287"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="A300:B300"/>
+    <mergeCell ref="A301:B301"/>
+    <mergeCell ref="A249:E249"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A255:B255"/>
     <mergeCell ref="A243:B243"/>
     <mergeCell ref="A244:B244"/>
     <mergeCell ref="A279:B279"/>
@@ -11626,14 +11628,6 @@
     <mergeCell ref="A283:B283"/>
     <mergeCell ref="A288:B288"/>
     <mergeCell ref="A289:B289"/>
-    <mergeCell ref="A290:B290"/>
-    <mergeCell ref="A291:B291"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="A287:E287"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="A300:B300"/>
-    <mergeCell ref="A301:B301"/>
     <mergeCell ref="A388:B388"/>
     <mergeCell ref="G383:H383"/>
     <mergeCell ref="G384:H384"/>
@@ -11643,6 +11637,12 @@
     <mergeCell ref="G388:H388"/>
     <mergeCell ref="A376:B376"/>
     <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A382:E382"/>
+    <mergeCell ref="A383:B383"/>
+    <mergeCell ref="A384:B384"/>
+    <mergeCell ref="A385:B385"/>
+    <mergeCell ref="A386:B386"/>
+    <mergeCell ref="A387:B387"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
